--- a/data/postprocessed/table/MPentropy/pearson/correaltions.xlsx
+++ b/data/postprocessed/table/MPentropy/pearson/correaltions.xlsx
@@ -480,67 +480,67 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.1405317721292531</v>
+        <v>-0.1251376819540477</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.08526523899921512</v>
+        <v>0.2607834186411893</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.2221039739448391</v>
+        <v>-0.1914752606047823</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3831357449226097</v>
+        <v>-0.04901477847494949</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1075263235498172</v>
+        <v>-0.04185119427250193</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01771301096173811</v>
+        <v>0.3160724455188618</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.198672322604621</v>
+        <v>-0.3712583999854013</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.4298620994695491</v>
+        <v>0.5861913982078005</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1371644137826487</v>
+        <v>0.06267724568464202</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2669122774612649</v>
+        <v>0.03210598135678911</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1817458398451523</v>
+        <v>0.3028180265499283</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.2638183597656631</v>
+        <v>0.4487784367665249</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4088101526859648</v>
+        <v>-0.1434743588166731</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.2357236808435559</v>
+        <v>-0.01364097849564345</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.08885494042514827</v>
+        <v>-0.4696251170963055</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.003336451996402849</v>
+        <v>0.2898067484975262</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1302731060536188</v>
+        <v>-0.04848856394898793</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.0818696930867588</v>
+        <v>-0.1133556784408458</v>
       </c>
     </row>
     <row r="3">
@@ -550,67 +550,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5545505937152728</v>
+        <v>0.3407554847115453</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7207797754786091</v>
+        <v>0.04416756524540516</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3466274650348417</v>
+        <v>0.1427683201520291</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09542679094144309</v>
+        <v>0.7099644494619942</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6518299920319925</v>
+        <v>0.7508659919208431</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9409150794511851</v>
+        <v>0.01388547601283866</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4010775438510493</v>
+        <v>0.003495630456440933</v>
       </c>
       <c r="J3" t="n">
-        <v>0.05853465382713944</v>
+        <v>8.608253554332517e-07</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5641711232995171</v>
+        <v>0.6342516514928669</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2552880622135018</v>
+        <v>0.8076001735331673</v>
       </c>
       <c r="N3" t="n">
-        <v>0.4431543453361727</v>
+        <v>0.01868351599283946</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2610471713410534</v>
+        <v>0.0003226309973744454</v>
       </c>
       <c r="P3" t="n">
-        <v>0.07350491825472179</v>
+        <v>0.2741132356577692</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.3170679524693764</v>
+        <v>0.9176101042041038</v>
       </c>
       <c r="R3" t="n">
         <v>1</v>
       </c>
       <c r="S3" t="n">
-        <v>0.7095034276291273</v>
+        <v>0.0001533968063783784</v>
       </c>
       <c r="T3" t="n">
-        <v>0.9798153161159073</v>
+        <v>7.943445865342719e-05</v>
       </c>
       <c r="U3" t="n">
-        <v>0.321148838522853</v>
+        <v>0.5180264530637675</v>
       </c>
       <c r="V3" t="n">
-        <v>0.5340306338595622</v>
+        <v>0.1297423760635343</v>
       </c>
     </row>
   </sheetData>
